--- a/MECHANICAL QUANTITY.xlsx
+++ b/MECHANICAL QUANTITY.xlsx
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>406.2625</v>
+        <v>406.26250000000005</v>
       </c>
     </row>
     <row r="5">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>36.051500000000004</v>
+        <v>36.0515</v>
       </c>
     </row>
     <row r="7">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>25.295</v>
+        <v>25.294999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>36.6304</v>
+        <v>36.63040000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>46.9768</v>
+        <v>46.976800000000004</v>
       </c>
     </row>
     <row r="28">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>58.083600000000004</v>
+        <v>58.0836</v>
       </c>
     </row>
     <row r="29">
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>6.6296</v>
+        <v>6.629600000000002</v>
       </c>
     </row>
     <row r="30">
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>6.672000000000001</v>
+        <v>6.6720000000000015</v>
       </c>
     </row>
     <row r="31">
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>97.64800000000001</v>
+        <v>97.648</v>
       </c>
     </row>
     <row r="32">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>26.174400000000002</v>
+        <v>26.1744</v>
       </c>
     </row>
     <row r="34">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>4.0512</v>
+        <v>4.051200000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="AX36">
-        <v>4.874999999999998</v>
+        <v>4.874999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AX44">
-        <v>4.465499999999999</v>
+        <v>4.4655</v>
       </c>
     </row>
     <row r="45">
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="AX47">
-        <v>6.387500000000001</v>
+        <v>6.387499999999999</v>
       </c>
     </row>
     <row r="48">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="AX49">
-        <v>4.4304999999999986</v>
+        <v>4.430499999999999</v>
       </c>
     </row>
     <row r="50">
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AX50">
-        <v>5.3985</v>
+        <v>5.3984999999999985</v>
       </c>
     </row>
     <row r="51">
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="AX52">
-        <v>6.7265</v>
+        <v>6.726499999999999</v>
       </c>
     </row>
     <row r="53">
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="AX69">
-        <v>66.84140000000001</v>
+        <v>66.8414</v>
       </c>
     </row>
     <row r="70">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AX71">
-        <v>66.84140000000001</v>
+        <v>66.8414</v>
       </c>
     </row>
     <row r="72">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="AX75">
-        <v>150.59730000000002</v>
+        <v>150.5973</v>
       </c>
     </row>
     <row r="76">
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="AX79">
-        <v>162.1937</v>
+        <v>162.19369999999998</v>
       </c>
     </row>
     <row r="80">
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AX83">
-        <v>66.84140000000001</v>
+        <v>66.8414</v>
       </c>
     </row>
     <row r="84">
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="AX92">
-        <v>22.2068</v>
+        <v>22.206799999999998</v>
       </c>
     </row>
     <row r="93">
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="AX95">
-        <v>637.5987999999998</v>
+        <v>637.5987999999996</v>
       </c>
     </row>
     <row r="96">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="AX97">
-        <v>120.31299999999999</v>
+        <v>120.313</v>
       </c>
     </row>
     <row r="98">
@@ -15273,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="AX98">
-        <v>71.08099999999999</v>
+        <v>71.081</v>
       </c>
     </row>
     <row r="99">
@@ -15425,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="AX99">
-        <v>49.961999999999996</v>
+        <v>49.962</v>
       </c>
     </row>
     <row r="100">
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="AX100">
-        <v>71.66099999999997</v>
+        <v>71.66099999999999</v>
       </c>
     </row>
     <row r="101">
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AX101">
-        <v>57.34599999999999</v>
+        <v>57.346000000000004</v>
       </c>
     </row>
     <row r="102">
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="AX107">
-        <v>619.5524</v>
+        <v>619.5524000000001</v>
       </c>
     </row>
     <row r="108">
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="AX113">
-        <v>363.3296</v>
+        <v>363.3296000000001</v>
       </c>
     </row>
     <row r="114">
@@ -17705,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="AX114">
-        <v>154.39160000000004</v>
+        <v>154.3916</v>
       </c>
     </row>
     <row r="115">
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="AX115">
-        <v>820.4223999999999</v>
+        <v>820.4224</v>
       </c>
     </row>
     <row r="116">
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="AX120">
-        <v>1621.2966000000001</v>
+        <v>1621.2966000000004</v>
       </c>
     </row>
     <row r="121">
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="AX128">
-        <v>413.1432</v>
+        <v>413.14320000000004</v>
       </c>
     </row>
     <row r="129">

--- a/MECHANICAL QUANTITY.xlsx
+++ b/MECHANICAL QUANTITY.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX130"/>
+  <dimension ref="A1:AV133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,78 +457,72 @@
         <v>SOCKETWELD 80 0.5</v>
       </c>
       <c r="Z1" t="str">
-        <v>SOCKETWELD 80 1</v>
+        <v>SOCKETWELD 80 2</v>
       </c>
       <c r="AA1" t="str">
-        <v>SOCKETWELD 80 1.5</v>
+        <v>TAPWELD 3000# 1 1/2"</v>
       </c>
       <c r="AB1" t="str">
-        <v>SOCKETWELD 80 2</v>
+        <v>TAPWELD 3000# 1"</v>
       </c>
       <c r="AC1" t="str">
-        <v>TAPWELD 3000# 1 1/2"</v>
+        <v>TAPWELD 3000# 1/2"</v>
       </c>
       <c r="AD1" t="str">
-        <v>TAPWELD 3000# 1"</v>
+        <v>TAPWELD 3000# 2"</v>
       </c>
       <c r="AE1" t="str">
-        <v>TAPWELD 3000# 1/2"</v>
+        <v>TAPWELD 3000# 3"</v>
       </c>
       <c r="AF1" t="str">
-        <v>TAPWELD 3000# 2"</v>
+        <v>TAPWELD 3000# 3/4"</v>
       </c>
       <c r="AG1" t="str">
-        <v>TAPWELD 3000# 3"</v>
+        <v>TAPWELD 3000# 4"</v>
       </c>
       <c r="AH1" t="str">
-        <v>TAPWELD 3000# 3/4"</v>
+        <v>TAPWELD 6000# 1 1/2"</v>
       </c>
       <c r="AI1" t="str">
-        <v>TAPWELD 3000# 4"</v>
+        <v>TAPWELD 6000# 1"</v>
       </c>
       <c r="AJ1" t="str">
-        <v>TAPWELD 6000# 1 1/2"</v>
+        <v>TAPWELD 6000# 1/2"</v>
       </c>
       <c r="AK1" t="str">
-        <v>TAPWELD 6000# 1"</v>
+        <v>TAPWELD 6000# 3/4"</v>
       </c>
       <c r="AL1" t="str">
-        <v>TAPWELD 6000# 1/2"</v>
+        <v>TAPWELD 9000# 3/4"</v>
       </c>
       <c r="AM1" t="str">
-        <v>TAPWELD 6000# 3/4"</v>
+        <v>THREAD 160 0.5</v>
       </c>
       <c r="AN1" t="str">
-        <v>THREAD 160 0.5</v>
+        <v>THREAD 160 0.75</v>
       </c>
       <c r="AO1" t="str">
-        <v>THREAD 160 0.75</v>
+        <v>THREAD 160 1</v>
       </c>
       <c r="AP1" t="str">
-        <v>THREAD 160 1</v>
+        <v>THREAD 160 1.5</v>
       </c>
       <c r="AQ1" t="str">
-        <v>THREAD 160 1.5</v>
+        <v>THREAD 160 2</v>
       </c>
       <c r="AR1" t="str">
-        <v>THREAD 160 2</v>
+        <v>THREAD 80 0.5</v>
       </c>
       <c r="AS1" t="str">
-        <v>THREAD 80 0.5</v>
+        <v>THREAD 80 0.75</v>
       </c>
       <c r="AT1" t="str">
-        <v>THREAD 80 0.75</v>
+        <v>THREAD 80 1</v>
       </c>
       <c r="AU1" t="str">
-        <v>THREAD 80 1</v>
+        <v>THREAD 80 2</v>
       </c>
       <c r="AV1" t="str">
-        <v>THREAD 80 1.5</v>
-      </c>
-      <c r="AW1" t="str">
-        <v>THREAD 80 2</v>
-      </c>
-      <c r="AX1" t="str">
         <v>weight</v>
       </c>
     </row>
@@ -675,13 +669,7 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>42.3925</v>
+        <v>42.754999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -800,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3">
         <v>2</v>
       </c>
-      <c r="AO3">
-        <v>3</v>
-      </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -827,12 +815,6 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
         <v>57.60000000000002</v>
       </c>
     </row>
@@ -961,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -979,13 +961,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>406.26250000000005</v>
+        <v>406.2625</v>
       </c>
     </row>
     <row r="5">
@@ -1113,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1131,12 +1107,6 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
         <v>7.3225</v>
       </c>
     </row>
@@ -1256,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1283,13 +1253,7 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>36.0515</v>
+        <v>36.051500000000004</v>
       </c>
     </row>
     <row r="7">
@@ -1408,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -1435,12 +1399,6 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
         <v>37.139</v>
       </c>
     </row>
@@ -1587,13 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>695.9075000000001</v>
+        <v>695.9075</v>
       </c>
     </row>
     <row r="9">
@@ -1667,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1721,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1739,13 +1691,7 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>3</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>10.969999999999999</v>
+        <v>24.8025</v>
       </c>
     </row>
     <row r="10">
@@ -1819,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1873,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -1891,13 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>3</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>10.969999999999999</v>
+        <v>24.8025</v>
       </c>
     </row>
     <row r="11">
@@ -2016,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -2043,12 +1983,6 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
         <v>63.59549999999999</v>
       </c>
     </row>
@@ -2123,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2195,13 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>11.2375</v>
+        <v>11.600000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2329,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -2347,13 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>25.294999999999998</v>
+        <v>25.295</v>
       </c>
     </row>
     <row r="14">
@@ -2499,13 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>11.2375</v>
+        <v>11.600000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2651,12 +2567,6 @@
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
         <v>11.1936</v>
       </c>
     </row>
@@ -2782,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -2803,13 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>36.63040000000001</v>
+        <v>36.6304</v>
       </c>
     </row>
     <row r="17">
@@ -2955,13 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>350.648</v>
+        <v>345.5176</v>
       </c>
     </row>
     <row r="18">
@@ -3047,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -3086,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -3107,13 +3005,7 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>10.3048</v>
+        <v>18.924400000000002</v>
       </c>
     </row>
     <row r="19">
@@ -3199,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3238,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3256,16 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>6.2768</v>
+        <v>18.9244</v>
       </c>
     </row>
     <row r="20">
@@ -3390,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -3411,12 +3297,6 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
         <v>8.5035</v>
       </c>
     </row>
@@ -3542,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -3557,19 +3437,13 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AU21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>25.880000000000017</v>
+        <v>26.80000000000002</v>
       </c>
     </row>
     <row r="22">
@@ -3715,12 +3589,6 @@
         <v>0</v>
       </c>
       <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
         <v>14.896800000000002</v>
       </c>
     </row>
@@ -3867,12 +3735,6 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
         <v>10.3456</v>
       </c>
     </row>
@@ -3992,39 +3854,33 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
         <v>1</v>
       </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
       <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
         <v>26.52810000000001</v>
       </c>
     </row>
@@ -4171,12 +4027,6 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
         <v>6.406</v>
       </c>
     </row>
@@ -4323,12 +4173,6 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
         <v>6.406</v>
       </c>
     </row>
@@ -4454,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -4475,13 +4319,7 @@
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>46.976800000000004</v>
+        <v>46.9768</v>
       </c>
     </row>
     <row r="28">
@@ -4627,13 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>58.0836</v>
+        <v>58.083600000000004</v>
       </c>
     </row>
     <row r="29">
@@ -4758,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -4779,13 +4611,7 @@
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>6.629600000000002</v>
+        <v>6.6296</v>
       </c>
     </row>
     <row r="30">
@@ -4910,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -4931,13 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>6.6720000000000015</v>
+        <v>6.672000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5083,13 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>97.648</v>
+        <v>97.64800000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5208,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -5232,15 +5046,9 @@
         <v>0</v>
       </c>
       <c r="AU32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
         <v>17.340400000000006</v>
       </c>
     </row>
@@ -5387,13 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>26.1744</v>
+        <v>26.174400000000002</v>
       </c>
     </row>
     <row r="34">
@@ -5518,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -5539,13 +5341,7 @@
         <v>0</v>
       </c>
       <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>4.051200000000001</v>
+        <v>4.0512</v>
       </c>
     </row>
     <row r="35">
@@ -5691,12 +5487,6 @@
         <v>0</v>
       </c>
       <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
         <v>24.800800000000002</v>
       </c>
     </row>
@@ -5816,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -5828,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -5843,13 +5633,7 @@
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>4.874999999999999</v>
+        <v>4.874999999999998</v>
       </c>
     </row>
     <row r="37">
@@ -5968,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -5995,12 +5779,6 @@
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
         <v>6.406499999999999</v>
       </c>
     </row>
@@ -6120,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -6147,12 +5925,6 @@
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
         <v>2.787</v>
       </c>
     </row>
@@ -6272,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -6299,12 +6071,6 @@
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
         <v>5.9955</v>
       </c>
     </row>
@@ -6424,10 +6190,10 @@
         <v>0</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -6451,12 +6217,6 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
         <v>2.956</v>
       </c>
     </row>
@@ -6576,10 +6336,10 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -6603,13 +6363,7 @@
         <v>0</v>
       </c>
       <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>1.593</v>
+        <v>1.6905000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -6743,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AS42">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -6755,12 +6509,6 @@
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
         <v>9.340000000000005</v>
       </c>
     </row>
@@ -6907,12 +6655,6 @@
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
         <v>46.103300000000004</v>
       </c>
     </row>
@@ -7059,13 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>4.4655</v>
+        <v>4.465499999999999</v>
       </c>
     </row>
     <row r="45">
@@ -7211,12 +6947,6 @@
         <v>0</v>
       </c>
       <c r="AV45">
-        <v>0</v>
-      </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
         <v>2.0865</v>
       </c>
     </row>
@@ -7336,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -7348,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -7363,12 +7093,6 @@
         <v>0</v>
       </c>
       <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
         <v>5.089499999999999</v>
       </c>
     </row>
@@ -7488,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -7515,13 +7239,7 @@
         <v>0</v>
       </c>
       <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
-      <c r="AX47">
-        <v>6.387499999999999</v>
+        <v>6.387500000000001</v>
       </c>
     </row>
     <row r="48">
@@ -7640,16 +7358,16 @@
         <v>0</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
         <v>0</v>
@@ -7667,12 +7385,6 @@
         <v>0</v>
       </c>
       <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
         <v>7.320499999999999</v>
       </c>
     </row>
@@ -7792,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -7804,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -7819,13 +7531,7 @@
         <v>0</v>
       </c>
       <c r="AV49">
-        <v>0</v>
-      </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>4.430499999999999</v>
+        <v>4.4304999999999986</v>
       </c>
     </row>
     <row r="50">
@@ -7944,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -7971,13 +7677,7 @@
         <v>0</v>
       </c>
       <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
-      <c r="AX50">
-        <v>5.3984999999999985</v>
+        <v>5.3985</v>
       </c>
     </row>
     <row r="51">
@@ -8042,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -8123,13 +7823,7 @@
         <v>0</v>
       </c>
       <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>7.603</v>
+        <v>7.837</v>
       </c>
     </row>
     <row r="52">
@@ -8248,10 +7942,10 @@
         <v>0</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -8275,13 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
-        <v>0</v>
-      </c>
-      <c r="AX52">
-        <v>6.726499999999999</v>
+        <v>6.7265</v>
       </c>
     </row>
     <row r="53">
@@ -8415,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -8427,12 +8115,6 @@
         <v>0</v>
       </c>
       <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
         <v>3.2799999999999994</v>
       </c>
     </row>
@@ -8552,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -8567,24 +8249,18 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT54">
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
         <v>1.71</v>
       </c>
     </row>
@@ -8650,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -8674,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -8704,10 +8380,10 @@
         <v>0</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -8719,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -8731,13 +8407,7 @@
         <v>0</v>
       </c>
       <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>4.539</v>
+        <v>28.436500000000002</v>
       </c>
     </row>
     <row r="56">
@@ -8856,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -8871,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AS56">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AT56">
         <v>0</v>
@@ -8883,12 +8553,6 @@
         <v>0</v>
       </c>
       <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
         <v>4.28</v>
       </c>
     </row>
@@ -8954,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -8978,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -9008,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -9023,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -9035,13 +8699,7 @@
         <v>0</v>
       </c>
       <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <v>0</v>
-      </c>
-      <c r="AX57">
-        <v>2.55</v>
+        <v>9.376499999999998</v>
       </c>
     </row>
     <row r="58">
@@ -9160,10 +8818,10 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -9172,10 +8830,10 @@
         <v>0</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58">
         <v>0</v>
@@ -9187,12 +8845,6 @@
         <v>0</v>
       </c>
       <c r="AV58">
-        <v>0</v>
-      </c>
-      <c r="AW58">
-        <v>0</v>
-      </c>
-      <c r="AX58">
         <v>4.2745</v>
       </c>
     </row>
@@ -9339,12 +8991,6 @@
         <v>0</v>
       </c>
       <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
         <v>20.2684</v>
       </c>
     </row>
@@ -9491,12 +9137,6 @@
         <v>0</v>
       </c>
       <c r="AV60">
-        <v>0</v>
-      </c>
-      <c r="AW60">
-        <v>0</v>
-      </c>
-      <c r="AX60">
         <v>13.7028</v>
       </c>
     </row>
@@ -9583,43 +9223,43 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
         <v>2</v>
       </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
       <c r="AN61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -9643,12 +9283,6 @@
         <v>0</v>
       </c>
       <c r="AV61">
-        <v>0</v>
-      </c>
-      <c r="AW61">
-        <v>0</v>
-      </c>
-      <c r="AX61">
         <v>28.241700000000005</v>
       </c>
     </row>
@@ -9735,43 +9369,43 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
         <v>2</v>
       </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
-      </c>
       <c r="AN62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -9795,12 +9429,6 @@
         <v>0</v>
       </c>
       <c r="AV62">
-        <v>0</v>
-      </c>
-      <c r="AW62">
-        <v>0</v>
-      </c>
-      <c r="AX62">
         <v>53.443700000000014</v>
       </c>
     </row>
@@ -9887,13 +9515,13 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -9947,12 +9575,6 @@
         <v>0</v>
       </c>
       <c r="AV63">
-        <v>0</v>
-      </c>
-      <c r="AW63">
-        <v>0</v>
-      </c>
-      <c r="AX63">
         <v>26.6536</v>
       </c>
     </row>
@@ -10039,43 +9661,43 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
         <v>2</v>
       </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
       <c r="AN64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -10099,12 +9721,6 @@
         <v>0</v>
       </c>
       <c r="AV64">
-        <v>0</v>
-      </c>
-      <c r="AW64">
-        <v>0</v>
-      </c>
-      <c r="AX64">
         <v>28.241700000000005</v>
       </c>
     </row>
@@ -10191,43 +9807,43 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
         <v>1</v>
       </c>
-      <c r="AE65">
-        <v>2</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
       <c r="AN65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -10251,12 +9867,6 @@
         <v>0</v>
       </c>
       <c r="AV65">
-        <v>0</v>
-      </c>
-      <c r="AW65">
-        <v>0</v>
-      </c>
-      <c r="AX65">
         <v>52.96980000000001</v>
       </c>
     </row>
@@ -10403,12 +10013,6 @@
         <v>0</v>
       </c>
       <c r="AV66">
-        <v>0</v>
-      </c>
-      <c r="AW66">
-        <v>0</v>
-      </c>
-      <c r="AX66">
         <v>11.523600000000002</v>
       </c>
     </row>
@@ -10555,12 +10159,6 @@
         <v>0</v>
       </c>
       <c r="AV67">
-        <v>0</v>
-      </c>
-      <c r="AW67">
-        <v>0</v>
-      </c>
-      <c r="AX67">
         <v>14.4865</v>
       </c>
     </row>
@@ -10707,12 +10305,6 @@
         <v>0</v>
       </c>
       <c r="AV68">
-        <v>0</v>
-      </c>
-      <c r="AW68">
-        <v>0</v>
-      </c>
-      <c r="AX68">
         <v>12.6615</v>
       </c>
     </row>
@@ -10859,13 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AV69">
-        <v>0</v>
-      </c>
-      <c r="AW69">
-        <v>0</v>
-      </c>
-      <c r="AX69">
-        <v>66.8414</v>
+        <v>66.84140000000001</v>
       </c>
     </row>
     <row r="70">
@@ -11011,12 +10597,6 @@
         <v>0</v>
       </c>
       <c r="AV70">
-        <v>0</v>
-      </c>
-      <c r="AW70">
-        <v>0</v>
-      </c>
-      <c r="AX70">
         <v>316.3838999999999</v>
       </c>
     </row>
@@ -11163,13 +10743,7 @@
         <v>0</v>
       </c>
       <c r="AV71">
-        <v>0</v>
-      </c>
-      <c r="AW71">
-        <v>0</v>
-      </c>
-      <c r="AX71">
-        <v>66.8414</v>
+        <v>66.84140000000001</v>
       </c>
     </row>
     <row r="72">
@@ -11258,40 +10832,40 @@
         <v>0</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
         <v>2</v>
       </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
-      </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>0</v>
-      </c>
       <c r="AN72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -11315,12 +10889,6 @@
         <v>0</v>
       </c>
       <c r="AV72">
-        <v>0</v>
-      </c>
-      <c r="AW72">
-        <v>0</v>
-      </c>
-      <c r="AX72">
         <v>86.44589999999998</v>
       </c>
     </row>
@@ -11410,13 +10978,13 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD73">
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -11440,10 +11008,10 @@
         <v>0</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -11467,12 +11035,6 @@
         <v>0</v>
       </c>
       <c r="AV73">
-        <v>0</v>
-      </c>
-      <c r="AW73">
-        <v>0</v>
-      </c>
-      <c r="AX73">
         <v>86.42539999999998</v>
       </c>
     </row>
@@ -11571,25 +11133,25 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG74">
         <v>0</v>
       </c>
       <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1</v>
       </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
         <v>0</v>
@@ -11619,12 +11181,6 @@
         <v>0</v>
       </c>
       <c r="AV74">
-        <v>0</v>
-      </c>
-      <c r="AW74">
-        <v>0</v>
-      </c>
-      <c r="AX74">
         <v>147.0852</v>
       </c>
     </row>
@@ -11723,25 +11279,25 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG75">
         <v>0</v>
       </c>
       <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1</v>
       </c>
-      <c r="AI75">
-        <v>0</v>
-      </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
         <v>0</v>
@@ -11771,13 +11327,7 @@
         <v>0</v>
       </c>
       <c r="AV75">
-        <v>0</v>
-      </c>
-      <c r="AW75">
-        <v>0</v>
-      </c>
-      <c r="AX75">
-        <v>150.5973</v>
+        <v>150.59730000000002</v>
       </c>
     </row>
     <row r="76">
@@ -11923,12 +11473,6 @@
         <v>0</v>
       </c>
       <c r="AV76">
-        <v>0</v>
-      </c>
-      <c r="AW76">
-        <v>0</v>
-      </c>
-      <c r="AX76">
         <v>56.0394</v>
       </c>
     </row>
@@ -12024,13 +11568,13 @@
         <v>0</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
       </c>
       <c r="AG77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH77">
         <v>0</v>
@@ -12075,12 +11619,6 @@
         <v>0</v>
       </c>
       <c r="AV77">
-        <v>0</v>
-      </c>
-      <c r="AW77">
-        <v>0</v>
-      </c>
-      <c r="AX77">
         <v>289.2187</v>
       </c>
     </row>
@@ -12227,12 +11765,6 @@
         <v>0</v>
       </c>
       <c r="AV78">
-        <v>0</v>
-      </c>
-      <c r="AW78">
-        <v>0</v>
-      </c>
-      <c r="AX78">
         <v>57.1083</v>
       </c>
     </row>
@@ -12379,13 +11911,7 @@
         <v>0</v>
       </c>
       <c r="AV79">
-        <v>0</v>
-      </c>
-      <c r="AW79">
-        <v>0</v>
-      </c>
-      <c r="AX79">
-        <v>162.19369999999998</v>
+        <v>162.1937</v>
       </c>
     </row>
     <row r="80">
@@ -12495,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="AJ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
         <v>0</v>
@@ -12531,13 +12057,7 @@
         <v>0</v>
       </c>
       <c r="AV80">
-        <v>0</v>
-      </c>
-      <c r="AW80">
-        <v>0</v>
-      </c>
-      <c r="AX80">
-        <v>322.0314999999999</v>
+        <v>323.0989999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12647,13 +12167,13 @@
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
         <v>0</v>
@@ -12683,13 +12203,7 @@
         <v>0</v>
       </c>
       <c r="AV81">
-        <v>0</v>
-      </c>
-      <c r="AW81">
-        <v>0</v>
-      </c>
-      <c r="AX81">
-        <v>327.58249999999987</v>
+        <v>328.43649999999985</v>
       </c>
     </row>
     <row r="82">
@@ -12835,12 +12349,6 @@
         <v>0</v>
       </c>
       <c r="AV82">
-        <v>0</v>
-      </c>
-      <c r="AW82">
-        <v>0</v>
-      </c>
-      <c r="AX82">
         <v>56.5896</v>
       </c>
     </row>
@@ -12987,13 +12495,7 @@
         <v>0</v>
       </c>
       <c r="AV83">
-        <v>0</v>
-      </c>
-      <c r="AW83">
-        <v>0</v>
-      </c>
-      <c r="AX83">
-        <v>66.8414</v>
+        <v>66.84140000000001</v>
       </c>
     </row>
     <row r="84">
@@ -13064,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X84">
         <v>0</v>
@@ -13127,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AR84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS84">
         <v>0</v>
@@ -13139,13 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AV84">
-        <v>0</v>
-      </c>
-      <c r="AW84">
-        <v>0</v>
-      </c>
-      <c r="AX84">
-        <v>72.7614</v>
+        <v>66.84140000000001</v>
       </c>
     </row>
     <row r="85">
@@ -13225,49 +12721,49 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA85">
         <v>0</v>
       </c>
       <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
         <v>2</v>
       </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>1</v>
-      </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-      <c r="AI85">
-        <v>0</v>
-      </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
-      <c r="AK85">
-        <v>0</v>
-      </c>
-      <c r="AL85">
-        <v>0</v>
-      </c>
-      <c r="AM85">
-        <v>0</v>
-      </c>
       <c r="AN85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -13291,12 +12787,6 @@
         <v>0</v>
       </c>
       <c r="AV85">
-        <v>0</v>
-      </c>
-      <c r="AW85">
-        <v>0</v>
-      </c>
-      <c r="AX85">
         <v>54.073899999999995</v>
       </c>
     </row>
@@ -13377,49 +12867,49 @@
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA86">
         <v>0</v>
       </c>
       <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
         <v>2</v>
       </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>1</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
-      <c r="AK86">
-        <v>0</v>
-      </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <v>0</v>
-      </c>
       <c r="AN86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -13443,12 +12933,6 @@
         <v>0</v>
       </c>
       <c r="AV86">
-        <v>0</v>
-      </c>
-      <c r="AW86">
-        <v>0</v>
-      </c>
-      <c r="AX86">
         <v>54.073899999999995</v>
       </c>
     </row>
@@ -13529,13 +13013,13 @@
         <v>0</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA87">
         <v>0</v>
       </c>
       <c r="AB87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -13595,12 +13079,6 @@
         <v>0</v>
       </c>
       <c r="AV87">
-        <v>0</v>
-      </c>
-      <c r="AW87">
-        <v>0</v>
-      </c>
-      <c r="AX87">
         <v>18.981199999999994</v>
       </c>
     </row>
@@ -13747,12 +13225,6 @@
         <v>0</v>
       </c>
       <c r="AV88">
-        <v>0</v>
-      </c>
-      <c r="AW88">
-        <v>0</v>
-      </c>
-      <c r="AX88">
         <v>13.7721</v>
       </c>
     </row>
@@ -13899,12 +13371,6 @@
         <v>0</v>
       </c>
       <c r="AV89">
-        <v>0</v>
-      </c>
-      <c r="AW89">
-        <v>0</v>
-      </c>
-      <c r="AX89">
         <v>14.794599999999999</v>
       </c>
     </row>
@@ -14051,12 +13517,6 @@
         <v>0</v>
       </c>
       <c r="AV90">
-        <v>0</v>
-      </c>
-      <c r="AW90">
-        <v>0</v>
-      </c>
-      <c r="AX90">
         <v>26.926399999999997</v>
       </c>
     </row>
@@ -14203,12 +13663,6 @@
         <v>0</v>
       </c>
       <c r="AV91">
-        <v>0</v>
-      </c>
-      <c r="AW91">
-        <v>0</v>
-      </c>
-      <c r="AX91">
         <v>52.5574</v>
       </c>
     </row>
@@ -14355,13 +13809,7 @@
         <v>0</v>
       </c>
       <c r="AV92">
-        <v>0</v>
-      </c>
-      <c r="AW92">
-        <v>0</v>
-      </c>
-      <c r="AX92">
-        <v>22.206799999999998</v>
+        <v>22.2068</v>
       </c>
     </row>
     <row r="93">
@@ -14507,13 +13955,7 @@
         <v>0</v>
       </c>
       <c r="AV93">
-        <v>0</v>
-      </c>
-      <c r="AW93">
-        <v>0</v>
-      </c>
-      <c r="AX93">
-        <v>3.3419999999999996</v>
+        <v>3.487</v>
       </c>
     </row>
     <row r="94">
@@ -14659,13 +14101,7 @@
         <v>0</v>
       </c>
       <c r="AV94">
-        <v>0</v>
-      </c>
-      <c r="AW94">
-        <v>0</v>
-      </c>
-      <c r="AX94">
-        <v>3.3419999999999996</v>
+        <v>3.487</v>
       </c>
     </row>
     <row r="95">
@@ -14754,43 +14190,43 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
         <v>4</v>
       </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-      <c r="AI95">
-        <v>0</v>
-      </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
-      <c r="AK95">
-        <v>0</v>
-      </c>
-      <c r="AL95">
-        <v>0</v>
-      </c>
-      <c r="AM95">
-        <v>0</v>
-      </c>
       <c r="AN95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP95">
         <v>0</v>
@@ -14802,22 +14238,16 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU95">
         <v>0</v>
       </c>
       <c r="AV95">
-        <v>0</v>
-      </c>
-      <c r="AW95">
-        <v>0</v>
-      </c>
-      <c r="AX95">
-        <v>637.5987999999996</v>
+        <v>637.7437999999997</v>
       </c>
     </row>
     <row r="96">
@@ -14963,12 +14393,6 @@
         <v>0</v>
       </c>
       <c r="AV96">
-        <v>0</v>
-      </c>
-      <c r="AW96">
-        <v>0</v>
-      </c>
-      <c r="AX96">
         <v>121.45100000000001</v>
       </c>
     </row>
@@ -15091,10 +14515,10 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP97">
         <v>0</v>
@@ -15115,13 +14539,7 @@
         <v>0</v>
       </c>
       <c r="AV97">
-        <v>0</v>
-      </c>
-      <c r="AW97">
-        <v>0</v>
-      </c>
-      <c r="AX97">
-        <v>120.313</v>
+        <v>120.31299999999999</v>
       </c>
     </row>
     <row r="98">
@@ -15267,13 +14685,7 @@
         <v>0</v>
       </c>
       <c r="AV98">
-        <v>0</v>
-      </c>
-      <c r="AW98">
-        <v>0</v>
-      </c>
-      <c r="AX98">
-        <v>71.081</v>
+        <v>71.08099999999999</v>
       </c>
     </row>
     <row r="99">
@@ -15419,13 +14831,7 @@
         <v>0</v>
       </c>
       <c r="AV99">
-        <v>0</v>
-      </c>
-      <c r="AW99">
-        <v>0</v>
-      </c>
-      <c r="AX99">
-        <v>49.962</v>
+        <v>49.961999999999996</v>
       </c>
     </row>
     <row r="100">
@@ -15571,13 +14977,7 @@
         <v>0</v>
       </c>
       <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AW100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>71.66099999999999</v>
+        <v>71.66099999999997</v>
       </c>
     </row>
     <row r="101">
@@ -15699,13 +15099,13 @@
         <v>0</v>
       </c>
       <c r="AN101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ101">
         <v>0</v>
@@ -15723,13 +15123,7 @@
         <v>0</v>
       </c>
       <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>0</v>
-      </c>
-      <c r="AX101">
-        <v>57.346000000000004</v>
+        <v>57.34599999999999</v>
       </c>
     </row>
     <row r="102">
@@ -15875,12 +15269,6 @@
         <v>0</v>
       </c>
       <c r="AV102">
-        <v>0</v>
-      </c>
-      <c r="AW102">
-        <v>0</v>
-      </c>
-      <c r="AX102">
         <v>701.9144000000001</v>
       </c>
     </row>
@@ -15937,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -16027,13 +15415,7 @@
         <v>0</v>
       </c>
       <c r="AV103">
-        <v>0</v>
-      </c>
-      <c r="AW103">
-        <v>0</v>
-      </c>
-      <c r="AX103">
-        <v>656.828</v>
+        <v>659.7296</v>
       </c>
     </row>
     <row r="104">
@@ -16179,12 +15561,6 @@
         <v>0</v>
       </c>
       <c r="AV104">
-        <v>0</v>
-      </c>
-      <c r="AW104">
-        <v>0</v>
-      </c>
-      <c r="AX104">
         <v>391.706</v>
       </c>
     </row>
@@ -16331,12 +15707,6 @@
         <v>0</v>
       </c>
       <c r="AV105">
-        <v>0</v>
-      </c>
-      <c r="AW105">
-        <v>0</v>
-      </c>
-      <c r="AX105">
         <v>275.6576</v>
       </c>
     </row>
@@ -16375,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -16453,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106">
         <v>0</v>
@@ -16483,13 +15853,7 @@
         <v>0</v>
       </c>
       <c r="AV106">
-        <v>0</v>
-      </c>
-      <c r="AW106">
-        <v>0</v>
-      </c>
-      <c r="AX106">
-        <v>2116.8008</v>
+        <v>2316.008</v>
       </c>
     </row>
     <row r="107">
@@ -16521,13 +15885,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -16554,61 +15918,61 @@
         <v>0</v>
       </c>
       <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
         <v>2</v>
       </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <v>2</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
-        <v>0</v>
-      </c>
-      <c r="AB107">
-        <v>0</v>
-      </c>
-      <c r="AC107">
-        <v>0</v>
-      </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-      <c r="AE107">
-        <v>0</v>
-      </c>
-      <c r="AF107">
-        <v>0</v>
-      </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
       <c r="AI107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK107">
         <v>1</v>
       </c>
       <c r="AL107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN107">
         <v>0</v>
@@ -16635,13 +15999,7 @@
         <v>0</v>
       </c>
       <c r="AV107">
-        <v>0</v>
-      </c>
-      <c r="AW107">
-        <v>0</v>
-      </c>
-      <c r="AX107">
-        <v>619.5524000000001</v>
+        <v>926.3554</v>
       </c>
     </row>
     <row r="108">
@@ -16697,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -16706,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="U108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -16736,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="AE108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -16745,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="AH108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -16763,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO108">
         <v>0</v>
@@ -16787,13 +16145,7 @@
         <v>0</v>
       </c>
       <c r="AV108">
-        <v>0</v>
-      </c>
-      <c r="AW108">
-        <v>0</v>
-      </c>
-      <c r="AX108">
-        <v>197.36540000000005</v>
+        <v>142.41</v>
       </c>
     </row>
     <row r="109">
@@ -16882,13 +16234,13 @@
         <v>0</v>
       </c>
       <c r="AC109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD109">
         <v>0</v>
       </c>
       <c r="AE109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -16939,12 +16291,6 @@
         <v>0</v>
       </c>
       <c r="AV109">
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <v>0</v>
-      </c>
-      <c r="AX109">
         <v>433.0263999999999</v>
       </c>
     </row>
@@ -17043,13 +16389,13 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG110">
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI110">
         <v>0</v>
@@ -17091,12 +16437,6 @@
         <v>0</v>
       </c>
       <c r="AV110">
-        <v>0</v>
-      </c>
-      <c r="AW110">
-        <v>0</v>
-      </c>
-      <c r="AX110">
         <v>401.4367999999999</v>
       </c>
     </row>
@@ -17186,22 +16526,22 @@
         <v>0</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD111">
         <v>0</v>
       </c>
       <c r="AE111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG111">
         <v>0</v>
       </c>
       <c r="AH111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI111">
         <v>0</v>
@@ -17216,13 +16556,13 @@
         <v>0</v>
       </c>
       <c r="AM111">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN111">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP111">
         <v>0</v>
@@ -17243,12 +16583,6 @@
         <v>0</v>
       </c>
       <c r="AV111">
-        <v>0</v>
-      </c>
-      <c r="AW111">
-        <v>0</v>
-      </c>
-      <c r="AX111">
         <v>186.50270000000003</v>
       </c>
     </row>
@@ -17338,22 +16672,22 @@
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD112">
         <v>0</v>
       </c>
       <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
         <v>2</v>
       </c>
-      <c r="AF112">
-        <v>0</v>
-      </c>
       <c r="AG112">
         <v>0</v>
       </c>
       <c r="AH112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI112">
         <v>0</v>
@@ -17395,12 +16729,6 @@
         <v>0</v>
       </c>
       <c r="AV112">
-        <v>0</v>
-      </c>
-      <c r="AW112">
-        <v>0</v>
-      </c>
-      <c r="AX112">
         <v>316.5032</v>
       </c>
     </row>
@@ -17490,40 +16818,40 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD113">
         <v>0</v>
       </c>
       <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
         <v>2</v>
       </c>
-      <c r="AF113">
-        <v>0</v>
-      </c>
-      <c r="AG113">
-        <v>0</v>
-      </c>
-      <c r="AH113">
-        <v>0</v>
-      </c>
-      <c r="AI113">
-        <v>0</v>
-      </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
-      <c r="AK113">
-        <v>0</v>
-      </c>
-      <c r="AL113">
-        <v>0</v>
-      </c>
-      <c r="AM113">
-        <v>0</v>
-      </c>
       <c r="AN113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO113">
         <v>0</v>
@@ -17547,13 +16875,7 @@
         <v>0</v>
       </c>
       <c r="AV113">
-        <v>0</v>
-      </c>
-      <c r="AW113">
-        <v>0</v>
-      </c>
-      <c r="AX113">
-        <v>363.3296000000001</v>
+        <v>363.3296</v>
       </c>
     </row>
     <row r="114">
@@ -17651,13 +16973,13 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG114">
         <v>0</v>
       </c>
       <c r="AH114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI114">
         <v>0</v>
@@ -17699,13 +17021,7 @@
         <v>0</v>
       </c>
       <c r="AV114">
-        <v>0</v>
-      </c>
-      <c r="AW114">
-        <v>0</v>
-      </c>
-      <c r="AX114">
-        <v>154.3916</v>
+        <v>154.39160000000004</v>
       </c>
     </row>
     <row r="115">
@@ -17851,13 +17167,7 @@
         <v>0</v>
       </c>
       <c r="AV115">
-        <v>0</v>
-      </c>
-      <c r="AW115">
-        <v>0</v>
-      </c>
-      <c r="AX115">
-        <v>820.4224</v>
+        <v>959.096</v>
       </c>
     </row>
     <row r="116">
@@ -17943,13 +17253,13 @@
         <v>0</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -18003,12 +17313,6 @@
         <v>0</v>
       </c>
       <c r="AV116">
-        <v>0</v>
-      </c>
-      <c r="AW116">
-        <v>0</v>
-      </c>
-      <c r="AX116">
         <v>105.03320000000001</v>
       </c>
     </row>
@@ -18098,13 +17402,13 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD117">
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -18128,10 +17432,10 @@
         <v>0</v>
       </c>
       <c r="AM117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO117">
         <v>0</v>
@@ -18155,12 +17459,6 @@
         <v>0</v>
       </c>
       <c r="AV117">
-        <v>0</v>
-      </c>
-      <c r="AW117">
-        <v>0</v>
-      </c>
-      <c r="AX117">
         <v>396.3483</v>
       </c>
     </row>
@@ -18250,22 +17548,22 @@
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD118">
         <v>0</v>
       </c>
       <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
         <v>2</v>
       </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
       <c r="AG118">
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -18307,12 +17605,6 @@
         <v>0</v>
       </c>
       <c r="AV118">
-        <v>0</v>
-      </c>
-      <c r="AW118">
-        <v>0</v>
-      </c>
-      <c r="AX118">
         <v>316.5032</v>
       </c>
     </row>
@@ -18459,13 +17751,7 @@
         <v>0</v>
       </c>
       <c r="AV119">
-        <v>0</v>
-      </c>
-      <c r="AW119">
-        <v>0</v>
-      </c>
-      <c r="AX119">
-        <v>284.2083999999999</v>
+        <v>274.8339999999999</v>
       </c>
     </row>
     <row r="120">
@@ -18521,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -18554,13 +17840,13 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD120">
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -18611,13 +17897,7 @@
         <v>0</v>
       </c>
       <c r="AV120">
-        <v>0</v>
-      </c>
-      <c r="AW120">
-        <v>0</v>
-      </c>
-      <c r="AX120">
-        <v>1621.2966000000004</v>
+        <v>1459.0966</v>
       </c>
     </row>
     <row r="121">
@@ -18709,13 +17989,13 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE121">
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG121">
         <v>0</v>
@@ -18763,12 +18043,6 @@
         <v>0</v>
       </c>
       <c r="AV121">
-        <v>0</v>
-      </c>
-      <c r="AW121">
-        <v>0</v>
-      </c>
-      <c r="AX121">
         <v>29.005599999999998</v>
       </c>
     </row>
@@ -18915,13 +18189,7 @@
         <v>0</v>
       </c>
       <c r="AV122">
-        <v>0</v>
-      </c>
-      <c r="AW122">
-        <v>0</v>
-      </c>
-      <c r="AX122">
-        <v>298.1584</v>
+        <v>288.5608</v>
       </c>
     </row>
     <row r="123">
@@ -19007,16 +18275,16 @@
         <v>0</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -19067,12 +18335,6 @@
         <v>0</v>
       </c>
       <c r="AV123">
-        <v>0</v>
-      </c>
-      <c r="AW123">
-        <v>0</v>
-      </c>
-      <c r="AX123">
         <v>7186.522800000001</v>
       </c>
     </row>
@@ -19159,22 +18421,22 @@
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF124">
         <v>0</v>
       </c>
       <c r="AG124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH124">
         <v>0</v>
@@ -19219,12 +18481,6 @@
         <v>0</v>
       </c>
       <c r="AV124">
-        <v>0</v>
-      </c>
-      <c r="AW124">
-        <v>0</v>
-      </c>
-      <c r="AX124">
         <v>1144.2574</v>
       </c>
     </row>
@@ -19371,12 +18627,6 @@
         <v>0</v>
       </c>
       <c r="AV125">
-        <v>0</v>
-      </c>
-      <c r="AW125">
-        <v>0</v>
-      </c>
-      <c r="AX125">
         <v>104.5652</v>
       </c>
     </row>
@@ -19421,10 +18671,10 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -19478,13 +18728,13 @@
         <v>0</v>
       </c>
       <c r="AG126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH126">
         <v>0</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -19523,13 +18773,7 @@
         <v>0</v>
       </c>
       <c r="AV126">
-        <v>0</v>
-      </c>
-      <c r="AW126">
-        <v>0</v>
-      </c>
-      <c r="AX126">
-        <v>636.3204000000001</v>
+        <v>825.4572000000001</v>
       </c>
     </row>
     <row r="127">
@@ -19675,12 +18919,6 @@
         <v>0</v>
       </c>
       <c r="AV127">
-        <v>0</v>
-      </c>
-      <c r="AW127">
-        <v>0</v>
-      </c>
-      <c r="AX127">
         <v>132.4794</v>
       </c>
     </row>
@@ -19767,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>0</v>
       </c>
       <c r="AD128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE128">
         <v>0</v>
@@ -19827,13 +19065,7 @@
         <v>0</v>
       </c>
       <c r="AV128">
-        <v>0</v>
-      </c>
-      <c r="AW128">
-        <v>0</v>
-      </c>
-      <c r="AX128">
-        <v>413.14320000000004</v>
+        <v>413.1432</v>
       </c>
     </row>
     <row r="129">
@@ -19901,49 +19133,49 @@
         <v>0</v>
       </c>
       <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
         <v>1</v>
       </c>
-      <c r="AA129">
-        <v>0</v>
-      </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
-      <c r="AC129">
-        <v>0</v>
-      </c>
-      <c r="AD129">
-        <v>0</v>
-      </c>
       <c r="AE129">
         <v>0</v>
       </c>
       <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
         <v>1</v>
       </c>
-      <c r="AG129">
-        <v>0</v>
-      </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-      <c r="AI129">
-        <v>0</v>
-      </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
-      <c r="AK129">
-        <v>0</v>
-      </c>
-      <c r="AL129">
-        <v>0</v>
-      </c>
-      <c r="AM129">
-        <v>0</v>
-      </c>
       <c r="AN129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO129">
         <v>0</v>
@@ -19967,13 +19199,7 @@
         <v>0</v>
       </c>
       <c r="AV129">
-        <v>0</v>
-      </c>
-      <c r="AW129">
-        <v>0</v>
-      </c>
-      <c r="AX129">
-        <v>95.33999999999995</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -20047,13 +19273,13 @@
         <v>0</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC130">
         <v>0</v>
       </c>
       <c r="AD130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE130">
         <v>0</v>
@@ -20080,16 +19306,16 @@
         <v>0</v>
       </c>
       <c r="AM130">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AN130">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO130">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AP130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ130">
         <v>0</v>
@@ -20107,18 +19333,414 @@
         <v>0</v>
       </c>
       <c r="AV130">
-        <v>0</v>
-      </c>
-      <c r="AW130">
-        <v>0</v>
-      </c>
-      <c r="AX130">
         <v>169.70150000000012</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="B131" t="str">
+        <v>SKID MEDICION</v>
+      </c>
+      <c r="C131" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="B132" t="str">
+        <v>SUPPORT LAYOUT</v>
+      </c>
+      <c r="C132" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AS132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="B133" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="C133" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>0</v>
+      </c>
+      <c r="AR133">
+        <v>0</v>
+      </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AX130"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AV133"/>
   </ignoredErrors>
 </worksheet>
 </file>